--- a/ch_09_python_in_excel/ch-09-python-excel.xlsx
+++ b/ch_09_python_in_excel/ch-09-python-excel.xlsx
@@ -1,28 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\1-python-in-excel-first-steps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\excel-power-tools-book\ch_09_python_in_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F4FC7-C384-4224-BDFE-BA61E91B1BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB87A6-238B-470F-B240-58026FEDDFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hello-world" sheetId="2" r:id="rId1"/>
     <sheet name="nyc-pop" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>nyc_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>from matplotlib.ticker import StrMethodFormatter
+sns.barplot(x='borough', y='population', 
+data=nyc_df, color='blue')
+plt.gca().yaxis.set_major_formatter(StrMethodFormatter('{x:,.0f}'))
+plt.title('Total population by borough')</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,13 +175,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -102,6 +197,240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484534</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>501098</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415DF170-DE07-EB6D-85E6-93A141390CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'nyc-pop'!M13"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6245089" y="2868429"/>
+          <a:ext cx="2600738" cy="2033646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="6" c="3">
+    <v t="s">borough</v>
+    <v t="s">population</v>
+    <v t="s">land_area</v>
+    <v t="s">Brooklyn</v>
+    <v>2736074</v>
+    <v>69.5</v>
+    <v t="s">Queens</v>
+    <v>2405464</v>
+    <v>108.7</v>
+    <v t="s">Manhattan</v>
+    <v>1694251</v>
+    <v>22.83</v>
+    <v t="s">The Bronx</v>
+    <v>1472654</v>
+    <v>42.1</v>
+    <v t="s">Staten Island</v>
+    <v>495747</v>
+    <v>58.37</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">         borough  population  land_area
+0       Brooklyn     2736074      69.50
+1         Queens     2405464     108.70
+2      Manhattan     1694251      22.83
+3      The Bronx     1472654      42.10
+4  Staten Island      495747      58.37</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="3">
+    <spb s="0">
+      <v>5</v>
+      <v>3</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10AA66D-0CEA-45C5-980F-5E74931B4CB6}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{A10AA66D-0CEA-45C5-980F-5E74931B4CB6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1C4F4E5A-700D-4ED4-B798-004411B112D2}" name="borough"/>
+    <tableColumn id="2" xr3:uid="{0D43E266-7ECD-471E-9C37-806A4723D376}" name="population" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E15CEA82-3240-498B-A533-B74986C73C21}" name="land_area"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -115,39 +444,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -180,9 +509,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -215,6 +561,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -276,13 +639,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -291,6 +647,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -355,21 +718,73 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1235" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{CFF96220-A541-45EE-AB7E-C2B9EDDD266D}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249EE3E8-639D-4031-B70D-8C339EC092A9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -379,81 +794,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="e" cm="1" vm="1">
+        <f t="array" ref="E1">_xlfn._xlws.PY(0,1,Table1[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1" t="str" cm="1">
+        <f t="array" ref="F1:H6">_FV(E1,"arrayPreview")</f>
+        <v>borough</v>
+      </c>
+      <c r="G1" t="str">
+        <v>population</v>
+      </c>
+      <c r="H1" t="str">
+        <v>land_area</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2736074</v>
       </c>
       <c r="C2">
         <v>69.5</v>
       </c>
+      <c r="F2" t="str">
+        <v>Brooklyn</v>
+      </c>
+      <c r="G2">
+        <v>2736074</v>
+      </c>
+      <c r="H2">
+        <v>69.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2405464</v>
       </c>
       <c r="C3">
         <v>108.7</v>
       </c>
+      <c r="F3" t="str">
+        <v>Queens</v>
+      </c>
+      <c r="G3">
+        <v>2405464</v>
+      </c>
+      <c r="H3">
+        <v>108.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1694251</v>
       </c>
       <c r="C4">
         <v>22.83</v>
       </c>
+      <c r="F4" t="str">
+        <v>Manhattan</v>
+      </c>
+      <c r="G4">
+        <v>1694251</v>
+      </c>
+      <c r="H4">
+        <v>22.83</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1472654</v>
       </c>
       <c r="C5">
         <v>42.1</v>
       </c>
+      <c r="F5" t="str">
+        <v>The Bronx</v>
+      </c>
+      <c r="G5">
+        <v>1472654</v>
+      </c>
+      <c r="H5">
+        <v>42.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>495747</v>
       </c>
       <c r="C6">
         <v>58.37</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Staten Island</v>
+      </c>
+      <c r="G6">
+        <v>495747</v>
+      </c>
+      <c r="H6">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M13" t="e" cm="1" vm="2">
+        <f t="array" ref="M13">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>